--- a/data/hotels_by_city/Dallas/Dallas_shard_650.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_650.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,594 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r583987181-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>1176216</t>
+  </si>
+  <si>
+    <t>583987181</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Perfect Place to Stay!!</t>
+  </si>
+  <si>
+    <t>My family and I are truly enjoying our stay!  The staff is super friendly and helpful!   Benny and Jerre have gone above and beyond to make us feel welcome!   This unexpected stay has been a true getaway!!  Thank you so much!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>My family and I are truly enjoying our stay!  The staff is super friendly and helpful!   Benny and Jerre have gone above and beyond to make us feel welcome!   This unexpected stay has been a true getaway!!  Thank you so much!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r583899019-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>583899019</t>
+  </si>
+  <si>
+    <t>Great hotel, great food, great staff! (Especially Jerre Bolin!)</t>
+  </si>
+  <si>
+    <t>I love this Residence Inn so much!  We checked in early and had a wonderful stay.  We loved the RI Mix in the evening.  Jerre Bolin was a great host for this social culinary event (this guy deserves a raise!).  The rest of staff was also very accommodating providing extra pillows and towels when we needed them.Thanks Residence Inn for an amazing stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>I love this Residence Inn so much!  We checked in early and had a wonderful stay.  We loved the RI Mix in the evening.  Jerre Bolin was a great host for this social culinary event (this guy deserves a raise!).  The rest of staff was also very accommodating providing extra pillows and towels when we needed them.Thanks Residence Inn for an amazing stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r582513864-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>582513864</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Cmc</t>
+  </si>
+  <si>
+    <t>Jerre Bolin was a pleasure to work with and was very helpful with our meeting. We have a weekly meeting and he is always very good at welcoming our guests. We love having our meeting here and hope to continue for a long time.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jerre Bolin was a pleasure to work with and was very helpful with our meeting. We have a weekly meeting and he is always very good at welcoming our guests. We love having our meeting here and hope to continue for a long time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r577928599-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>577928599</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Kudos to Benny</t>
+  </si>
+  <si>
+    <t>I'd like to recognize Benny at the front desk  for the excellent job he did for me. He made sure I had the accessible room I needed for my mother. He followed up to make sure everything was OK with the room. His professional and courteous work is appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>I'd like to recognize Benny at the front desk  for the excellent job he did for me. He made sure I had the accessible room I needed for my mother. He followed up to make sure everything was OK with the room. His professional and courteous work is appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r567905765-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>567905765</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>The Staff Was The Best Part of My Stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 18 days while training for business.  This had to be one of the best experiences I've EVER had while traveling for work.  Breakfast was top notch, the facilities were always clean, the room was amazing and the staff made ALL the difference!  From the cleaning crew to the kitchen staff... They made all the difference! Emily is the Best, Lee is the Man, and God Bless Jerry, who made me laugh and think every time he drove us somewhere in the van.  Overall, this was a very pleasurable experience, hopefully I'll get to come back for additional training and stay here again.  Thank you so much for allowing me to feel like part of the family.  God Bless-MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 18 days while training for business.  This had to be one of the best experiences I've EVER had while traveling for work.  Breakfast was top notch, the facilities were always clean, the room was amazing and the staff made ALL the difference!  From the cleaning crew to the kitchen staff... They made all the difference! Emily is the Best, Lee is the Man, and God Bless Jerry, who made me laugh and think every time he drove us somewhere in the van.  Overall, this was a very pleasurable experience, hopefully I'll get to come back for additional training and stay here again.  Thank you so much for allowing me to feel like part of the family.  God Bless-More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r557634687-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>557634687</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>Very convenient location near the Parks Mall and The Highlands.  The lobby is very nice, well decorated.  But, don’t plan on getting in there for free breakfast on the weekends.  There were several very large families with kids taking all of the tables.  Monday was completely different.  Food was good and the staff was pleasant and helpful.Room was not clean.  There were stains on the furniture and curtains.  The shampoo and conditioner bottles were used and nearly empty.  Whenever I see something that housekeeping has overlooked, I wonder what I’m not seeing.This property is a Marriott franchise and clearly the standards are different than a corporate property.Take your valuables and lock the car!  There was glass in the parking lot where a car had been broken in to.  I can’t blame the hotel for this...there are signs reminding you to lock your car.There are so many choices in Arlington, I will probably try something else next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Very convenient location near the Parks Mall and The Highlands.  The lobby is very nice, well decorated.  But, don’t plan on getting in there for free breakfast on the weekends.  There were several very large families with kids taking all of the tables.  Monday was completely different.  Food was good and the staff was pleasant and helpful.Room was not clean.  There were stains on the furniture and curtains.  The shampoo and conditioner bottles were used and nearly empty.  Whenever I see something that housekeeping has overlooked, I wonder what I’m not seeing.This property is a Marriott franchise and clearly the standards are different than a corporate property.Take your valuables and lock the car!  There was glass in the parking lot where a car had been broken in to.  I can’t blame the hotel for this...there are signs reminding you to lock your car.There are so many choices in Arlington, I will probably try something else next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r511297675-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>511297675</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Check you credit card charges after staying here!</t>
+  </si>
+  <si>
+    <t>We booked via a third party and pre-paid. At check-in, I gave my credit card for incidentals. When my bill arrived, I noticed I had been charged for the room. I called and was told it would be corrected in 3-5 business days. Two weeks later and the charge has not been removed, and I am still waiting for someone to call me. Avoid staying here, and if you do, make sure to check your credit card statement for fraudulent charges.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Bobbi G, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>We booked via a third party and pre-paid. At check-in, I gave my credit card for incidentals. When my bill arrived, I noticed I had been charged for the room. I called and was told it would be corrected in 3-5 business days. Two weeks later and the charge has not been removed, and I am still waiting for someone to call me. Avoid staying here, and if you do, make sure to check your credit card statement for fraudulent charges.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r505625118-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>505625118</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Trip to Dallas/ Fortworth area Residence Inn</t>
+  </si>
+  <si>
+    <t>My wife and I visited this Residence Inn. We had a great room. The area was very quite, and safe. We had there breakfast a couple of time, and it wasn't bad either. Our room was comfortable, and clean. We enjoyed our stay at this Marriott property.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r503689932-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>503689932</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Trip to Hot Springs !!!!</t>
+  </si>
+  <si>
+    <t>Had a 2 nite stay hear at this nice hotel!!! Check in was quick &amp; ez, lady at front. Desk was very nice and frindly. We had a king suit ,was nice and cool!!! Room was nice and clean ,with a kitchen large frig , full coffee pot &amp; microwave,and a washer &amp; dryer  on premises . Have a nice pool &amp; hot tub in a pool house .lots of shopping  in The area.the free brackfast was very good!!!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r475961172-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>475961172</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel with a great location</t>
+  </si>
+  <si>
+    <t>I was in Dallas during Good Friday weekend and I got the Residence Inn for $64 off a Priceline Express Deal. The location is excellent, adjacent to I-20 and close to numerous restaurants and shops at the Arlington Highlands. The front desk receptionist, Leslie, was very friendly and helpful. The lobby area was very large which was nice.
+The room was very clean and spacious. The kitchenette was fairly small but it was adequate and complete with granite countertops. The fridge and microwave were both larger than in most hotels. There were also a number of kitchen utensils offered along with rags and dishwasher soap. The living area was more than sufficient with a nice sofa and a bar table with a jar of sweets and mints. The bed and pillows were more than comfortable and the bathroom was had plenty of towels and offered all essential toiletries. The room did need some work however. There were some pink stains on the walls and the drawers in the bathroom were chipped in places. The Internet was fairly fast and I did have some problems connecting, but the front desk fixed the problem quickly.
+The breakfast was great with a number of hot and cold options. The hot options included pork and chicken sausages, oatmeal, scrambled eggs, and biscuits and gravy. The cold options included fruit, yogurt, boiled eggs, breads, and juices.
+Overall, I would recommend this hotel to anyone who...I was in Dallas during Good Friday weekend and I got the Residence Inn for $64 off a Priceline Express Deal. The location is excellent, adjacent to I-20 and close to numerous restaurants and shops at the Arlington Highlands. The front desk receptionist, Leslie, was very friendly and helpful. The lobby area was very large which was nice.The room was very clean and spacious. The kitchenette was fairly small but it was adequate and complete with granite countertops. The fridge and microwave were both larger than in most hotels. There were also a number of kitchen utensils offered along with rags and dishwasher soap. The living area was more than sufficient with a nice sofa and a bar table with a jar of sweets and mints. The bed and pillows were more than comfortable and the bathroom was had plenty of towels and offered all essential toiletries. The room did need some work however. There were some pink stains on the walls and the drawers in the bathroom were chipped in places. The Internet was fairly fast and I did have some problems connecting, but the front desk fixed the problem quickly.The breakfast was great with a number of hot and cold options. The hot options included pork and chicken sausages, oatmeal, scrambled eggs, and biscuits and gravy. The cold options included fruit, yogurt, boiled eggs, breads, and juices.Overall, I would recommend this hotel to anyone who is traveling to Arlington and the surrounding area. The location and quality are almost unmatched.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Aaron B, Front Office Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded April 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2017</t>
+  </si>
+  <si>
+    <t>I was in Dallas during Good Friday weekend and I got the Residence Inn for $64 off a Priceline Express Deal. The location is excellent, adjacent to I-20 and close to numerous restaurants and shops at the Arlington Highlands. The front desk receptionist, Leslie, was very friendly and helpful. The lobby area was very large which was nice.
+The room was very clean and spacious. The kitchenette was fairly small but it was adequate and complete with granite countertops. The fridge and microwave were both larger than in most hotels. There were also a number of kitchen utensils offered along with rags and dishwasher soap. The living area was more than sufficient with a nice sofa and a bar table with a jar of sweets and mints. The bed and pillows were more than comfortable and the bathroom was had plenty of towels and offered all essential toiletries. The room did need some work however. There were some pink stains on the walls and the drawers in the bathroom were chipped in places. The Internet was fairly fast and I did have some problems connecting, but the front desk fixed the problem quickly.
+The breakfast was great with a number of hot and cold options. The hot options included pork and chicken sausages, oatmeal, scrambled eggs, and biscuits and gravy. The cold options included fruit, yogurt, boiled eggs, breads, and juices.
+Overall, I would recommend this hotel to anyone who...I was in Dallas during Good Friday weekend and I got the Residence Inn for $64 off a Priceline Express Deal. The location is excellent, adjacent to I-20 and close to numerous restaurants and shops at the Arlington Highlands. The front desk receptionist, Leslie, was very friendly and helpful. The lobby area was very large which was nice.The room was very clean and spacious. The kitchenette was fairly small but it was adequate and complete with granite countertops. The fridge and microwave were both larger than in most hotels. There were also a number of kitchen utensils offered along with rags and dishwasher soap. The living area was more than sufficient with a nice sofa and a bar table with a jar of sweets and mints. The bed and pillows were more than comfortable and the bathroom was had plenty of towels and offered all essential toiletries. The room did need some work however. There were some pink stains on the walls and the drawers in the bathroom were chipped in places. The Internet was fairly fast and I did have some problems connecting, but the front desk fixed the problem quickly.The breakfast was great with a number of hot and cold options. The hot options included pork and chicken sausages, oatmeal, scrambled eggs, and biscuits and gravy. The cold options included fruit, yogurt, boiled eggs, breads, and juices.Overall, I would recommend this hotel to anyone who is traveling to Arlington and the surrounding area. The location and quality are almost unmatched.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r473023808-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>473023808</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Top Accommodations With First Class Service.</t>
+  </si>
+  <si>
+    <t>The Arlington Residence Inn is spotlessly clean and comfortable and the complementary breakfast is outstanding.. The location is fantastic and convenient to countless restaurants, shops, and local attractions. In addition, the superlative staff members are friendly, attentive and highly skilled. Gracie, at the front desk, is a superstar. She solved a major reservation problem for me in less time than it took me to describe it. If you are visiting Arlington, for work or for play, this is where you want to rest your head.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>The Arlington Residence Inn is spotlessly clean and comfortable and the complementary breakfast is outstanding.. The location is fantastic and convenient to countless restaurants, shops, and local attractions. In addition, the superlative staff members are friendly, attentive and highly skilled. Gracie, at the front desk, is a superstar. She solved a major reservation problem for me in less time than it took me to describe it. If you are visiting Arlington, for work or for play, this is where you want to rest your head.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r469030039-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>469030039</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Great Location, Very Nice Rooms, Okay Breakfast</t>
+  </si>
+  <si>
+    <t>The Location is perfect as it is right across the street from the Highlands which is a shopping and hang out area.  Almost everything within minutes of you.  Some of the hotel staff was very friendly, but others acted like you were bothering them if you asked simple questions or for toiletry.  The breakfast was okay, I still cannot believe in this day and age they serve Pork Only?MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>The Location is perfect as it is right across the street from the Highlands which is a shopping and hang out area.  Almost everything within minutes of you.  Some of the hotel staff was very friendly, but others acted like you were bothering them if you asked simple questions or for toiletry.  The breakfast was okay, I still cannot believe in this day and age they serve Pork Only?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r446431763-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>446431763</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, great breakfast</t>
+  </si>
+  <si>
+    <t>This is the second time I've stayed here for family around Christmas. There are some nice places to eat nearby, the accommodations are very clean and nice. The free breakfast is one of the best hotel breakfasts I've ever had. They actually put sausage in their gravy so it's not some milky white "country" gravy and has some flavor.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2017</t>
+  </si>
+  <si>
+    <t>This is the second time I've stayed here for family around Christmas. There are some nice places to eat nearby, the accommodations are very clean and nice. The free breakfast is one of the best hotel breakfasts I've ever had. They actually put sausage in their gravy so it's not some milky white "country" gravy and has some flavor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r442607206-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>442607206</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>A few small things could have made it much better</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 weeks on business and there were a few great things, and a few things that could use some improvement.
+Laundry facilities are actually really good for a hotel. There is nothing worse than an extended stay hotel with a single working washer and dryer. This place had 5, and they actually got my clothes dry which is pretty impressive.
+The location of the hotel is great, and pretty easy to get into/out of. Its right off I-20, and there are a lock of restaurants nearby within walking distance. The Parks mall is also less than a 5 minute drive away. Around rush hour though the traffic at 20/Matlock (the nearest large intersection) can be brutal, so plan accordingly.
+I had several issues with housekeeping during my stay, from small annoyances like not giving me a new bag of popcorn (I know im being petty on that one), to pretty big issues like putting dirty dishes with food stuck to them back in the drawer, and leaving cleaning products in my room. On one occasion they left a cup they used for whatever cleaning chemicals on the toilet, and on another they left a pair of used blue plastic gloves on the sink about an inch from my toothbrush. I went to the front desk about this, and they were very accommodating, making sure that some one different cleaned my room from that point forward. Another...I stayed here for 3 weeks on business and there were a few great things, and a few things that could use some improvement.Laundry facilities are actually really good for a hotel. There is nothing worse than an extended stay hotel with a single working washer and dryer. This place had 5, and they actually got my clothes dry which is pretty impressive.The location of the hotel is great, and pretty easy to get into/out of. Its right off I-20, and there are a lock of restaurants nearby within walking distance. The Parks mall is also less than a 5 minute drive away. Around rush hour though the traffic at 20/Matlock (the nearest large intersection) can be brutal, so plan accordingly.I had several issues with housekeeping during my stay, from small annoyances like not giving me a new bag of popcorn (I know im being petty on that one), to pretty big issues like putting dirty dishes with food stuck to them back in the drawer, and leaving cleaning products in my room. On one occasion they left a cup they used for whatever cleaning chemicals on the toilet, and on another they left a pair of used blue plastic gloves on the sink about an inch from my toothbrush. I went to the front desk about this, and they were very accommodating, making sure that some one different cleaned my room from that point forward. Another nitpicky thing that was pretty annoying was the coffee and the fact that they dont have it out all day (First Marriott I've seen outside of a Courtyard or a high end one that doesn't). The front desk girl said it was because of the kitchen being closed and suggested I use the coffee pot in my room (Lets be real, those things aren't cleaned at ANY hotel). I guess their coffee requires a chef or something to brew, so go figure. Breakfast was also frustrating at times. During the weak, breakfast was really good in that there was a variety of items that would rotate so I didn't have to eat the same thing every day. Weekends or any time the hotel was booked up was a complete mess though, and it was really easy to see that the hotel did not have proper staffing to keep up. On the same day, i saw them out of coffee, coffee cups, silverware, plates, eggs, and bacon all at the same time. I was scratching my head, because you have to know this is going to happen when you have a huge party of cheerleaders staying in a quarter of your hotel from a competition in town. Dinner on Mon-Wed was actually a step above most Residence Inns, so they do get credit for that.Overall it depends on your needs on whether or not I would recommend this hotel. if you are traveling for fun, its probably perfect for you. There were multiple meetings and lots of groups staying here, so they can probably coordinate stuff for you very easily. As far as for my needs though, I'm not sure i could stay here for another 3 weeks on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded December 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 weeks on business and there were a few great things, and a few things that could use some improvement.
+Laundry facilities are actually really good for a hotel. There is nothing worse than an extended stay hotel with a single working washer and dryer. This place had 5, and they actually got my clothes dry which is pretty impressive.
+The location of the hotel is great, and pretty easy to get into/out of. Its right off I-20, and there are a lock of restaurants nearby within walking distance. The Parks mall is also less than a 5 minute drive away. Around rush hour though the traffic at 20/Matlock (the nearest large intersection) can be brutal, so plan accordingly.
+I had several issues with housekeeping during my stay, from small annoyances like not giving me a new bag of popcorn (I know im being petty on that one), to pretty big issues like putting dirty dishes with food stuck to them back in the drawer, and leaving cleaning products in my room. On one occasion they left a cup they used for whatever cleaning chemicals on the toilet, and on another they left a pair of used blue plastic gloves on the sink about an inch from my toothbrush. I went to the front desk about this, and they were very accommodating, making sure that some one different cleaned my room from that point forward. Another...I stayed here for 3 weeks on business and there were a few great things, and a few things that could use some improvement.Laundry facilities are actually really good for a hotel. There is nothing worse than an extended stay hotel with a single working washer and dryer. This place had 5, and they actually got my clothes dry which is pretty impressive.The location of the hotel is great, and pretty easy to get into/out of. Its right off I-20, and there are a lock of restaurants nearby within walking distance. The Parks mall is also less than a 5 minute drive away. Around rush hour though the traffic at 20/Matlock (the nearest large intersection) can be brutal, so plan accordingly.I had several issues with housekeeping during my stay, from small annoyances like not giving me a new bag of popcorn (I know im being petty on that one), to pretty big issues like putting dirty dishes with food stuck to them back in the drawer, and leaving cleaning products in my room. On one occasion they left a cup they used for whatever cleaning chemicals on the toilet, and on another they left a pair of used blue plastic gloves on the sink about an inch from my toothbrush. I went to the front desk about this, and they were very accommodating, making sure that some one different cleaned my room from that point forward. Another nitpicky thing that was pretty annoying was the coffee and the fact that they dont have it out all day (First Marriott I've seen outside of a Courtyard or a high end one that doesn't). The front desk girl said it was because of the kitchen being closed and suggested I use the coffee pot in my room (Lets be real, those things aren't cleaned at ANY hotel). I guess their coffee requires a chef or something to brew, so go figure. Breakfast was also frustrating at times. During the weak, breakfast was really good in that there was a variety of items that would rotate so I didn't have to eat the same thing every day. Weekends or any time the hotel was booked up was a complete mess though, and it was really easy to see that the hotel did not have proper staffing to keep up. On the same day, i saw them out of coffee, coffee cups, silverware, plates, eggs, and bacon all at the same time. I was scratching my head, because you have to know this is going to happen when you have a huge party of cheerleaders staying in a quarter of your hotel from a competition in town. Dinner on Mon-Wed was actually a step above most Residence Inns, so they do get credit for that.Overall it depends on your needs on whether or not I would recommend this hotel. if you are traveling for fun, its probably perfect for you. There were multiple meetings and lots of groups staying here, so they can probably coordinate stuff for you very easily. As far as for my needs though, I'm not sure i could stay here for another 3 weeks on business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r439322932-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>439322932</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Displaced from home for 2.5 weeks</t>
+  </si>
+  <si>
+    <t>Because of a plumbing leak in our home, we were displaced and needed a place for our family of 5 during the restoration process.  I'm a faithful Marriott fan, but had never stayed in Marriott for 2.5 weeks, and certainly not with my entire family of 5 + golden retrieve.Kitchen had a full stovetop and over, plus a full-size fridge.Housekeeping was good, but had to be prompted to replace a few items.Food service manager and crew were really on top of it.Entire hotel staff made our stay very enjoyable, in spite of us being a bit cramped in a 2 bedroom/2 bath suite.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Because of a plumbing leak in our home, we were displaced and needed a place for our family of 5 during the restoration process.  I'm a faithful Marriott fan, but had never stayed in Marriott for 2.5 weeks, and certainly not with my entire family of 5 + golden retrieve.Kitchen had a full stovetop and over, plus a full-size fridge.Housekeeping was good, but had to be prompted to replace a few items.Food service manager and crew were really on top of it.Entire hotel staff made our stay very enjoyable, in spite of us being a bit cramped in a 2 bedroom/2 bath suite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r425865195-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>425865195</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Challenges checking in</t>
+  </si>
+  <si>
+    <t>Stayed here for a week while attending work training. Knew there was issues when I walked into the lobby to check in at 3pm. The manager was already there speaking to another customer and explaining how their room wasn't ready. I stepped up and was immediately assigned a room. Got my key walked into the room and it had a partially eaten pizza on the table and the room was NOT cleaned with the TV blaring. I walked back to the front desk and shared the condition of the room. They immediately gave me room 219 ( If you ever get assigned this room RUN ;~) just take a look at the picture. Could have been a WORSE stay, but definitely could have been BETTER! With the many hotels options in the areas I'd be hard pressed to chose this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for a week while attending work training. Knew there was issues when I walked into the lobby to check in at 3pm. The manager was already there speaking to another customer and explaining how their room wasn't ready. I stepped up and was immediately assigned a room. Got my key walked into the room and it had a partially eaten pizza on the table and the room was NOT cleaned with the TV blaring. I walked back to the front desk and shared the condition of the room. They immediately gave me room 219 ( If you ever get assigned this room RUN ;~) just take a look at the picture. Could have been a WORSE stay, but definitely could have been BETTER! With the many hotels options in the areas I'd be hard pressed to chose this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r418898235-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>418898235</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks for work. The room and accommodation's were great to arrive to after having to be at work for the day. Your room was always clean and comfortable when you arrived. If you wanted to workout or whatever it may be, you can do it here. If you wanted to grab something good to eat, Leslie at the front desk was a great help for giving suggestions and taking care of anything you needed while there for your stay. I will definitely be back to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks for work. The room and accommodation's were great to arrive to after having to be at work for the day. Your room was always clean and comfortable when you arrived. If you wanted to workout or whatever it may be, you can do it here. If you wanted to grab something good to eat, Leslie at the front desk was a great help for giving suggestions and taking care of anything you needed while there for your stay. I will definitely be back to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r418833459-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>418833459</t>
+  </si>
+  <si>
+    <t>Mr. Attitude</t>
+  </si>
+  <si>
+    <t>Stayed at the Courtyard next door to the Residence Inn over the weekend for business.  Jerry - Mr. Attitude was an awesome shuttle driver.  Didn't hesitate to take our part to a local restaurant for dinner and pick us back up.   Just a very nice guy to talk to.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at the Courtyard next door to the Residence Inn over the weekend for business.  Jerry - Mr. Attitude was an awesome shuttle driver.  Didn't hesitate to take our part to a local restaurant for dinner and pick us back up.   Just a very nice guy to talk to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r398908695-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>398908695</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>I have stayed at this Residence Inn twice, both times more than two weeks at a time. The rooms are clean and comfortable. The accommodations in the rooms are awesome for extended stay visits with a full size frig and a stove. During the week, the hotel provides great snacks with wine and beer to wash it down. The front desk personnel are very nice and accommodating. My favorite at the front desk was Lesley, after returning from work during the day, it was nice to walk into the lobby greeted by Lesley's smile and asking how my day was. The little things this hotel provided made for a great trip. MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this Residence Inn twice, both times more than two weeks at a time. The rooms are clean and comfortable. The accommodations in the rooms are awesome for extended stay visits with a full size frig and a stove. During the week, the hotel provides great snacks with wine and beer to wash it down. The front desk personnel are very nice and accommodating. My favorite at the front desk was Lesley, after returning from work during the day, it was nice to walk into the lobby greeted by Lesley's smile and asking how my day was. The little things this hotel provided made for a great trip. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r396940388-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>396940388</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>July Trip</t>
+  </si>
+  <si>
+    <t>The room was very clean and spacious.  Stayed in a Studio King.  Had a fridge, stovetop (didn't cook), dishwasher, King Bed, nice-sized tv ideally located on swivel to accommodate you seeing it from any place except bathroom, table for 2, desk, and L-shaped sofa.  The AC worked well and kept us cool and comfortable.  I asked for a 4th floor room so no one was above me.  Did not hear others at night.  I use the microwave fan though to mimic the bathroom fan I use at home.  Used the pool and courtyard area to host a family get together.  Brought Rudy's BBQ to the outside patio and felt like I was at home hosting the family!  The fridge in the room is a good size so leftovers fit in there with room to spare.  Friendly staff, especially Greg at the front desk.  Will definitely stay again next time I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was very clean and spacious.  Stayed in a Studio King.  Had a fridge, stovetop (didn't cook), dishwasher, King Bed, nice-sized tv ideally located on swivel to accommodate you seeing it from any place except bathroom, table for 2, desk, and L-shaped sofa.  The AC worked well and kept us cool and comfortable.  I asked for a 4th floor room so no one was above me.  Did not hear others at night.  I use the microwave fan though to mimic the bathroom fan I use at home.  Used the pool and courtyard area to host a family get together.  Brought Rudy's BBQ to the outside patio and felt like I was at home hosting the family!  The fridge in the room is a good size so leftovers fit in there with room to spare.  Friendly staff, especially Greg at the front desk.  Will definitely stay again next time I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r389172796-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>389172796</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Poorly Managed Property</t>
+  </si>
+  <si>
+    <t>I am an elite platinum Marriott member and was very disappointed with the the service I received at this property.  My issue is lack of follow through by management.  I stayed here on points and decided to cut my stay short by one day.  I called the front desk 24hours before my last day to cancel.  I was assured that it was fine and I would be credited my points for the night I wasn't using.  When we checked out the next morning no one was at the desk but a housekeeping staff member said just leave your key and I will inform the staff.  I was never credited the night.  I called the platinum line and the manager of the property called and left a message on my phone.  I in turn lest several messages and spoke to someone once.  I was told that "it was being looked into".  I was never credited the points and gave up trying. I would not recommend this property.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>I am an elite platinum Marriott member and was very disappointed with the the service I received at this property.  My issue is lack of follow through by management.  I stayed here on points and decided to cut my stay short by one day.  I called the front desk 24hours before my last day to cancel.  I was assured that it was fine and I would be credited my points for the night I wasn't using.  When we checked out the next morning no one was at the desk but a housekeeping staff member said just leave your key and I will inform the staff.  I was never credited the night.  I called the platinum line and the manager of the property called and left a message on my phone.  I in turn lest several messages and spoke to someone once.  I was told that "it was being looked into".  I was never credited the points and gave up trying. I would not recommend this property.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r375627612-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>375627612</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Above average Residence Inn - recommended</t>
+  </si>
+  <si>
+    <t>This was definitely an above average stay at the Residence Inn - exceptionally good staff.  I'd probably give this a 5 star were it not for the power and parking problems.  We arrived at a last minute reservation as my wife was ill and arrived to find the power had failed on the floor we were assigned in the hall (the room had power).  I have to give the front desk person credit - she was handling the situation with great calm given the calls she was getting.  She even opened the kitchen for me so I could get my wife some crackers to calm her stomach.  The room was nice, clean, and well appointed.  No issues with it at all.Breakfast was quite a good spread with attentive staff.  The only persistent issue was parking.  There were a number of crates blocking parts of the lot.  This became a real problem in the morning when they hosted a local church service.  The lot was borderline impossible. The crowd passed but they really should have thought out some contingencies with the lot in the shape that it was in.Still this is a great hotel and once the crates are gone (I think they just did some refurbishing) I think it will be a top notch asset to the chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Aaron B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>This was definitely an above average stay at the Residence Inn - exceptionally good staff.  I'd probably give this a 5 star were it not for the power and parking problems.  We arrived at a last minute reservation as my wife was ill and arrived to find the power had failed on the floor we were assigned in the hall (the room had power).  I have to give the front desk person credit - she was handling the situation with great calm given the calls she was getting.  She even opened the kitchen for me so I could get my wife some crackers to calm her stomach.  The room was nice, clean, and well appointed.  No issues with it at all.Breakfast was quite a good spread with attentive staff.  The only persistent issue was parking.  There were a number of crates blocking parts of the lot.  This became a real problem in the morning when they hosted a local church service.  The lot was borderline impossible. The crowd passed but they really should have thought out some contingencies with the lot in the shape that it was in.Still this is a great hotel and once the crates are gone (I think they just did some refurbishing) I think it will be a top notch asset to the chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r371642574-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>371642574</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Stayed in a Suite Next Door to Our Kids and Grandkids on Trip to Visit</t>
+  </si>
+  <si>
+    <t>Wow!  This place was much neater, cleaner and well put together than we imagined it would be.  Our kids picked this place because our granddaughter was in a competition nearby and they wanted a suite set up for family convenience.  We flew in for a few days and got the suite next door so we could visit on family terms.  We weren't expecting much but received so much more.The room was clean, updated and comfortable.  The entire hotel is in very nice condition. Even the courtesy breakfast bar was not bad.There is great shopping and restaurants nearby.  And maybe even a few bars worth hitting (sorry kids, it helps grandma and grandpa cope with small children in our advanced age).If you're in the area and are traveling with family, this inn is a great place to base yourself from.  You can save money by having at least some meals in.  The rooms even have dishwashers!MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Wow!  This place was much neater, cleaner and well put together than we imagined it would be.  Our kids picked this place because our granddaughter was in a competition nearby and they wanted a suite set up for family convenience.  We flew in for a few days and got the suite next door so we could visit on family terms.  We weren't expecting much but received so much more.The room was clean, updated and comfortable.  The entire hotel is in very nice condition. Even the courtesy breakfast bar was not bad.There is great shopping and restaurants nearby.  And maybe even a few bars worth hitting (sorry kids, it helps grandma and grandpa cope with small children in our advanced age).If you're in the area and are traveling with family, this inn is a great place to base yourself from.  You can save money by having at least some meals in.  The rooms even have dishwashers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r371159303-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>371159303</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Perfect location</t>
+  </si>
+  <si>
+    <t>Stayed here for wrestle mania hotel reception on arrival was fantastic travelled world and never had a welcome like it. Staff very helpful and go the extra mile. Room was great and so was breakfast. Hotel located half hour walk to at &amp; t stadium also water park nearby. Taxi cheap into centre Dallas. Nice restaurants located opposite hotel highly recommend salt house. Would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for wrestle mania hotel reception on arrival was fantastic travelled world and never had a welcome like it. Staff very helpful and go the extra mile. Room was great and so was breakfast. Hotel located half hour walk to at &amp; t stadium also water park nearby. Taxi cheap into centre Dallas. Nice restaurants located opposite hotel highly recommend salt house. Would definitely recommend this hotel.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1233,1536 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>154</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>181</v>
+      </c>
+      <c r="X19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>181</v>
+      </c>
+      <c r="X20" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>202</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>207</v>
+      </c>
+      <c r="X22" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s">
+        <v>214</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>215</v>
+      </c>
+      <c r="O23" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>216</v>
+      </c>
+      <c r="X23" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>220</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>224</v>
+      </c>
+      <c r="X24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" t="s">
+        <v>231</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_650.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_650.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Stephanie S</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>My family and I are truly enjoying our stay!  The staff is super friendly and helpful!   Benny and Jerre have gone above and beyond to make us feel welcome!   This unexpected stay has been a true getaway!!  Thank you so much!!!More</t>
   </si>
   <si>
+    <t>Andrew M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r583899019-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>I love this Residence Inn so much!  We checked in early and had a wonderful stay.  We loved the RI Mix in the evening.  Jerre Bolin was a great host for this social culinary event (this guy deserves a raise!).  The rest of staff was also very accommodating providing extra pillows and towels when we needed them.Thanks Residence Inn for an amazing stay!More</t>
   </si>
   <si>
+    <t>perriconklin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r582513864-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>Jerre Bolin was a pleasure to work with and was very helpful with our meeting. We have a weekly meeting and he is always very good at welcoming our guests. We love having our meeting here and hope to continue for a long time.More</t>
   </si>
   <si>
+    <t>lhorns06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r577928599-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>I'd like to recognize Benny at the front desk  for the excellent job he did for me. He made sure I had the accessible room I needed for my mother. He followed up to make sure everything was OK with the room. His professional and courteous work is appreciated.More</t>
   </si>
   <si>
+    <t>francisk911</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r567905765-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>I stayed at this hotel for 18 days while training for business.  This had to be one of the best experiences I've EVER had while traveling for work.  Breakfast was top notch, the facilities were always clean, the room was amazing and the staff made ALL the difference!  From the cleaning crew to the kitchen staff... They made all the difference! Emily is the Best, Lee is the Man, and God Bless Jerry, who made me laugh and think every time he drove us somewhere in the van.  Overall, this was a very pleasurable experience, hopefully I'll get to come back for additional training and stay here again.  Thank you so much for allowing me to feel like part of the family.  God Bless-More</t>
   </si>
   <si>
+    <t>NoName55857</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r557634687-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>Very convenient location near the Parks Mall and The Highlands.  The lobby is very nice, well decorated.  But, don’t plan on getting in there for free breakfast on the weekends.  There were several very large families with kids taking all of the tables.  Monday was completely different.  Food was good and the staff was pleasant and helpful.Room was not clean.  There were stains on the furniture and curtains.  The shampoo and conditioner bottles were used and nearly empty.  Whenever I see something that housekeeping has overlooked, I wonder what I’m not seeing.This property is a Marriott franchise and clearly the standards are different than a corporate property.Take your valuables and lock the car!  There was glass in the parking lot where a car had been broken in to.  I can’t blame the hotel for this...there are signs reminding you to lock your car.There are so many choices in Arlington, I will probably try something else next time.More</t>
   </si>
   <si>
+    <t>tylerlisal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r511297675-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>We booked via a third party and pre-paid. At check-in, I gave my credit card for incidentals. When my bill arrived, I noticed I had been charged for the room. I called and was told it would be corrected in 3-5 business days. Two weeks later and the charge has not been removed, and I am still waiting for someone to call me. Avoid staying here, and if you do, make sure to check your credit card statement for fraudulent charges.More</t>
   </si>
   <si>
+    <t>Rick B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r505625118-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Mike C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r503689932-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -361,6 +388,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Damien R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r475961172-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -396,6 +426,9 @@
 Overall, I would recommend this hotel to anyone who...I was in Dallas during Good Friday weekend and I got the Residence Inn for $64 off a Priceline Express Deal. The location is excellent, adjacent to I-20 and close to numerous restaurants and shops at the Arlington Highlands. The front desk receptionist, Leslie, was very friendly and helpful. The lobby area was very large which was nice.The room was very clean and spacious. The kitchenette was fairly small but it was adequate and complete with granite countertops. The fridge and microwave were both larger than in most hotels. There were also a number of kitchen utensils offered along with rags and dishwasher soap. The living area was more than sufficient with a nice sofa and a bar table with a jar of sweets and mints. The bed and pillows were more than comfortable and the bathroom was had plenty of towels and offered all essential toiletries. The room did need some work however. There were some pink stains on the walls and the drawers in the bathroom were chipped in places. The Internet was fairly fast and I did have some problems connecting, but the front desk fixed the problem quickly.The breakfast was great with a number of hot and cold options. The hot options included pork and chicken sausages, oatmeal, scrambled eggs, and biscuits and gravy. The cold options included fruit, yogurt, boiled eggs, breads, and juices.Overall, I would recommend this hotel to anyone who is traveling to Arlington and the surrounding area. The location and quality are almost unmatched.More</t>
   </si>
   <si>
+    <t>Brett G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r473023808-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -420,6 +453,9 @@
     <t>The Arlington Residence Inn is spotlessly clean and comfortable and the complementary breakfast is outstanding.. The location is fantastic and convenient to countless restaurants, shops, and local attractions. In addition, the superlative staff members are friendly, attentive and highly skilled. Gracie, at the front desk, is a superstar. She solved a major reservation problem for me in less time than it took me to describe it. If you are visiting Arlington, for work or for play, this is where you want to rest your head.More</t>
   </si>
   <si>
+    <t>G S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r469030039-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -441,6 +477,9 @@
     <t>The Location is perfect as it is right across the street from the Highlands which is a shopping and hang out area.  Almost everything within minutes of you.  Some of the hotel staff was very friendly, but others acted like you were bothering them if you asked simple questions or for toiletry.  The breakfast was okay, I still cannot believe in this day and age they serve Pork Only?More</t>
   </si>
   <si>
+    <t>Nathan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r446431763-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -466,6 +505,9 @@
   </si>
   <si>
     <t>This is the second time I've stayed here for family around Christmas. There are some nice places to eat nearby, the accommodations are very clean and nice. The free breakfast is one of the best hotel breakfasts I've ever had. They actually put sausage in their gravy so it's not some milky white "country" gravy and has some flavor.More</t>
+  </si>
+  <si>
+    <t>Rob S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r442607206-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -504,6 +546,9 @@
 I had several issues with housekeeping during my stay, from small annoyances like not giving me a new bag of popcorn (I know im being petty on that one), to pretty big issues like putting dirty dishes with food stuck to them back in the drawer, and leaving cleaning products in my room. On one occasion they left a cup they used for whatever cleaning chemicals on the toilet, and on another they left a pair of used blue plastic gloves on the sink about an inch from my toothbrush. I went to the front desk about this, and they were very accommodating, making sure that some one different cleaned my room from that point forward. Another...I stayed here for 3 weeks on business and there were a few great things, and a few things that could use some improvement.Laundry facilities are actually really good for a hotel. There is nothing worse than an extended stay hotel with a single working washer and dryer. This place had 5, and they actually got my clothes dry which is pretty impressive.The location of the hotel is great, and pretty easy to get into/out of. Its right off I-20, and there are a lock of restaurants nearby within walking distance. The Parks mall is also less than a 5 minute drive away. Around rush hour though the traffic at 20/Matlock (the nearest large intersection) can be brutal, so plan accordingly.I had several issues with housekeeping during my stay, from small annoyances like not giving me a new bag of popcorn (I know im being petty on that one), to pretty big issues like putting dirty dishes with food stuck to them back in the drawer, and leaving cleaning products in my room. On one occasion they left a cup they used for whatever cleaning chemicals on the toilet, and on another they left a pair of used blue plastic gloves on the sink about an inch from my toothbrush. I went to the front desk about this, and they were very accommodating, making sure that some one different cleaned my room from that point forward. Another nitpicky thing that was pretty annoying was the coffee and the fact that they dont have it out all day (First Marriott I've seen outside of a Courtyard or a high end one that doesn't). The front desk girl said it was because of the kitchen being closed and suggested I use the coffee pot in my room (Lets be real, those things aren't cleaned at ANY hotel). I guess their coffee requires a chef or something to brew, so go figure. Breakfast was also frustrating at times. During the weak, breakfast was really good in that there was a variety of items that would rotate so I didn't have to eat the same thing every day. Weekends or any time the hotel was booked up was a complete mess though, and it was really easy to see that the hotel did not have proper staffing to keep up. On the same day, i saw them out of coffee, coffee cups, silverware, plates, eggs, and bacon all at the same time. I was scratching my head, because you have to know this is going to happen when you have a huge party of cheerleaders staying in a quarter of your hotel from a competition in town. Dinner on Mon-Wed was actually a step above most Residence Inns, so they do get credit for that.Overall it depends on your needs on whether or not I would recommend this hotel. if you are traveling for fun, its probably perfect for you. There were multiple meetings and lots of groups staying here, so they can probably coordinate stuff for you very easily. As far as for my needs though, I'm not sure i could stay here for another 3 weeks on business.More</t>
   </si>
   <si>
+    <t>wdaniel06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r439322932-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -528,6 +573,9 @@
     <t>Because of a plumbing leak in our home, we were displaced and needed a place for our family of 5 during the restoration process.  I'm a faithful Marriott fan, but had never stayed in Marriott for 2.5 weeks, and certainly not with my entire family of 5 + golden retrieve.Kitchen had a full stovetop and over, plus a full-size fridge.Housekeeping was good, but had to be prompted to replace a few items.Food service manager and crew were really on top of it.Entire hotel staff made our stay very enjoyable, in spite of us being a bit cramped in a 2 bedroom/2 bath suite.More</t>
   </si>
   <si>
+    <t>JG_EDH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r425865195-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -555,6 +603,9 @@
     <t>Stayed here for a week while attending work training. Knew there was issues when I walked into the lobby to check in at 3pm. The manager was already there speaking to another customer and explaining how their room wasn't ready. I stepped up and was immediately assigned a room. Got my key walked into the room and it had a partially eaten pizza on the table and the room was NOT cleaned with the TV blaring. I walked back to the front desk and shared the condition of the room. They immediately gave me room 219 ( If you ever get assigned this room RUN ;~) just take a look at the picture. Could have been a WORSE stay, but definitely could have been BETTER! With the many hotels options in the areas I'd be hard pressed to chose this hotel again.More</t>
   </si>
   <si>
+    <t>kevslonebop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r418898235-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -582,6 +633,9 @@
     <t>I stayed here for 2 weeks for work. The room and accommodation's were great to arrive to after having to be at work for the day. Your room was always clean and comfortable when you arrived. If you wanted to workout or whatever it may be, you can do it here. If you wanted to grab something good to eat, Leslie at the front desk was a great help for giving suggestions and taking care of anything you needed while there for your stay. I will definitely be back to stay here again.More</t>
   </si>
   <si>
+    <t>The_Bagwells</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r418833459-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -597,6 +651,9 @@
     <t>Stayed at the Courtyard next door to the Residence Inn over the weekend for business.  Jerry - Mr. Attitude was an awesome shuttle driver.  Didn't hesitate to take our part to a local restaurant for dinner and pick us back up.   Just a very nice guy to talk to.More</t>
   </si>
   <si>
+    <t>Stephen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r398908695-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -615,6 +672,9 @@
     <t>I have stayed at this Residence Inn twice, both times more than two weeks at a time. The rooms are clean and comfortable. The accommodations in the rooms are awesome for extended stay visits with a full size frig and a stove. During the week, the hotel provides great snacks with wine and beer to wash it down. The front desk personnel are very nice and accommodating. My favorite at the front desk was Lesley, after returning from work during the day, it was nice to walk into the lobby greeted by Lesley's smile and asking how my day was. The little things this hotel provided made for a great trip. More</t>
   </si>
   <si>
+    <t>Karen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r396940388-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -633,6 +693,9 @@
     <t>The room was very clean and spacious.  Stayed in a Studio King.  Had a fridge, stovetop (didn't cook), dishwasher, King Bed, nice-sized tv ideally located on swivel to accommodate you seeing it from any place except bathroom, table for 2, desk, and L-shaped sofa.  The AC worked well and kept us cool and comfortable.  I asked for a 4th floor room so no one was above me.  Did not hear others at night.  I use the microwave fan though to mimic the bathroom fan I use at home.  Used the pool and courtyard area to host a family get together.  Brought Rudy's BBQ to the outside patio and felt like I was at home hosting the family!  The fridge in the room is a good size so leftovers fit in there with room to spare.  Friendly staff, especially Greg at the front desk.  Will definitely stay again next time I'm in the area.More</t>
   </si>
   <si>
+    <t>Tee1000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r389172796-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -660,6 +723,9 @@
     <t>I am an elite platinum Marriott member and was very disappointed with the the service I received at this property.  My issue is lack of follow through by management.  I stayed here on points and decided to cut my stay short by one day.  I called the front desk 24hours before my last day to cancel.  I was assured that it was fine and I would be credited my points for the night I wasn't using.  When we checked out the next morning no one was at the desk but a housekeeping staff member said just leave your key and I will inform the staff.  I was never credited the night.  I called the platinum line and the manager of the property called and left a message on my phone.  I in turn lest several messages and spoke to someone once.  I was told that "it was being looked into".  I was never credited the points and gave up trying. I would not recommend this property.  More</t>
   </si>
   <si>
+    <t>Paul M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r375627612-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -687,6 +753,9 @@
     <t>This was definitely an above average stay at the Residence Inn - exceptionally good staff.  I'd probably give this a 5 star were it not for the power and parking problems.  We arrived at a last minute reservation as my wife was ill and arrived to find the power had failed on the floor we were assigned in the hall (the room had power).  I have to give the front desk person credit - she was handling the situation with great calm given the calls she was getting.  She even opened the kitchen for me so I could get my wife some crackers to calm her stomach.  The room was nice, clean, and well appointed.  No issues with it at all.Breakfast was quite a good spread with attentive staff.  The only persistent issue was parking.  There were a number of crates blocking parts of the lot.  This became a real problem in the morning when they hosted a local church service.  The lot was borderline impossible. The crowd passed but they really should have thought out some contingencies with the lot in the shape that it was in.Still this is a great hotel and once the crates are gone (I think they just did some refurbishing) I think it will be a top notch asset to the chain.More</t>
   </si>
   <si>
+    <t>TomHAntioch_CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r371642574-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -709,6 +778,9 @@
   </si>
   <si>
     <t>Wow!  This place was much neater, cleaner and well put together than we imagined it would be.  Our kids picked this place because our granddaughter was in a competition nearby and they wanted a suite set up for family convenience.  We flew in for a few days and got the suite next door so we could visit on family terms.  We weren't expecting much but received so much more.The room was clean, updated and comfortable.  The entire hotel is in very nice condition. Even the courtesy breakfast bar was not bad.There is great shopping and restaurants nearby.  And maybe even a few bars worth hitting (sorry kids, it helps grandma and grandpa cope with small children in our advanced age).If you're in the area and are traveling with family, this inn is a great place to base yourself from.  You can save money by having at least some meals in.  The rooms even have dishwashers!More</t>
+  </si>
+  <si>
+    <t>mckaw7</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r371159303-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -1237,43 +1309,47 @@
       <c r="A2" t="n">
         <v>57307</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>1137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1285,56 +1361,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57307</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>20173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1352,56 +1432,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57307</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175615</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1413,56 +1497,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57307</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>175616</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1478,56 +1566,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57307</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175617</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1543,56 +1635,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57307</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175618</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1604,56 +1700,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57307</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175619</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1669,56 +1769,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57307</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>5003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1736,50 +1840,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57307</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>3891</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1797,50 +1905,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57307</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175620</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -1858,56 +1970,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57307</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>56494</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1919,56 +2035,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57307</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>17864</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -1986,56 +2106,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57307</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>49737</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2047,56 +2171,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57307</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>18696</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2114,56 +2242,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57307</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>175621</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2179,56 +2311,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57307</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>175622</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2244,56 +2380,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57307</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175623</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2311,56 +2451,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57307</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175624</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2378,56 +2522,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57307</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>42105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2439,56 +2587,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57307</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>4468</v>
+      </c>
+      <c r="C21" t="s">
+        <v>214</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>197</v>
       </c>
-      <c r="K21" t="s">
-        <v>198</v>
-      </c>
-      <c r="L21" t="s">
-        <v>199</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>180</v>
-      </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2504,56 +2656,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="X21" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57307</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175625</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2565,56 +2721,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="X22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="Y22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57307</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7271</v>
+      </c>
+      <c r="C23" t="s">
+        <v>231</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="O23" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2630,56 +2790,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="X23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57307</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>175626</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2697,47 +2861,51 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="X24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="Y24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57307</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>175627</v>
+      </c>
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="J25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
@@ -2754,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="X25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_650.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_650.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="405">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,180 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Stephanie S</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r597756719-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>1176216</t>
+  </si>
+  <si>
+    <t>597756719</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Terrible hotel - they cancelled multiple reservations last minute</t>
+  </si>
+  <si>
+    <t>I wish I could actually have a chance to experience this hotel, but they apparently overbooked the rooms and cancelled all 3 reservations we had made a month before. It would not have been such an issue if we were told straight away, after a day or two, but we were told within hours of our departure from Europe!!! We weren't given any options - like reservation at other Marriott property, just a message "it was overbooked, now it's cancelled" and we were forced to book ourselves from hotels that had rooms less than 24 hours before our arrival at DFW - all either terrible quality or very, very expensive. Appaling behaviour - while I can understand mix-ups happen, the lack of customer care is totally unacceptable! What would happen if we started our 14 hour long intercontinental trip and ended up in your hotel at 2am being told we cancelled your rooms???MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Christopher V, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2018</t>
+  </si>
+  <si>
+    <t>I wish I could actually have a chance to experience this hotel, but they apparently overbooked the rooms and cancelled all 3 reservations we had made a month before. It would not have been such an issue if we were told straight away, after a day or two, but we were told within hours of our departure from Europe!!! We weren't given any options - like reservation at other Marriott property, just a message "it was overbooked, now it's cancelled" and we were forced to book ourselves from hotels that had rooms less than 24 hours before our arrival at DFW - all either terrible quality or very, very expensive. Appaling behaviour - while I can understand mix-ups happen, the lack of customer care is totally unacceptable! What would happen if we started our 14 hour long intercontinental trip and ended up in your hotel at 2am being told we cancelled your rooms???More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r596235098-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>596235098</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Thank you!</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay from early March through May.  The staff took great care of us.  Great location near everything yet set back from really busy streets.  We enjoyed the breakfast, the indoor pool, the friendliness towards our dog and the large grass lot across the street where she could run.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Christopher V, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2018</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay from early March through May.  The staff took great care of us.  Great location near everything yet set back from really busy streets.  We enjoyed the breakfast, the indoor pool, the friendliness towards our dog and the large grass lot across the street where she could run.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r595170615-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>595170615</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Best home away fromhome</t>
+  </si>
+  <si>
+    <t>I was displaced due to flood in my home. The staff had amazing customer service,  the convience of the amenities was awesome.  I had thebest experienceand so glad my insurance put me there! Thanks for making me feel better during a hard time! Thanks for beingnice to mycats and husband too!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded July 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2018</t>
+  </si>
+  <si>
+    <t>I was displaced due to flood in my home. The staff had amazing customer service,  the convience of the amenities was awesome.  I had thebest experienceand so glad my insurance put me there! Thanks for making me feel better during a hard time! Thanks for beingnice to mycats and husband too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r589217684-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>589217684</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Not a restful night.</t>
+  </si>
+  <si>
+    <t>I had previously stayed with my family at this location about a year ago and had a great experience which is why I rebooked for an overnight stay with my husband and two kids over Memorial Day weekend. This time we were on the 1st floor, which is odd because I had requested 4th floor online and had even talked to someone on the phone about it before we arrived. We liked the location of location of the 1st floor room initially. The real problem started after I put my kids down for the night. The people around us were opening and shutting doors from 9 pm to 1 am steadily. I did call the front desk twice and the second time the man I talked to around 5 am did sound genuinely concerned and the noises stopped after that. There were also people from a sports league having a loud conversation outside the door. Luckily we had brought our air purifier that I use as background noise, so at least my husband and one of my kids could sleep, but all the noises kept startling my 8 month old awake. Won’t return.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>I had previously stayed with my family at this location about a year ago and had a great experience which is why I rebooked for an overnight stay with my husband and two kids over Memorial Day weekend. This time we were on the 1st floor, which is odd because I had requested 4th floor online and had even talked to someone on the phone about it before we arrived. We liked the location of location of the 1st floor room initially. The real problem started after I put my kids down for the night. The people around us were opening and shutting doors from 9 pm to 1 am steadily. I did call the front desk twice and the second time the man I talked to around 5 am did sound genuinely concerned and the noises stopped after that. There were also people from a sports league having a loud conversation outside the door. Luckily we had brought our air purifier that I use as background noise, so at least my husband and one of my kids could sleep, but all the noises kept startling my 8 month old awake. Won’t return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r586500963-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>586500963</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Great Place to recoop from Knee Surgery</t>
+  </si>
+  <si>
+    <t>Came to the hotel to recovery from knee surgery and had my mom and aunt in from Michigan to help.  While I was in the hospital they were having a great time at the Social meeting the staff; they really enjoy Jerre Bolin's company and his pouring of the wine.  They also got to know the maintenance staff, Lou, who could not have been more accomadating, he went above and beyond.  When the left I still had 4 days here to stay, and the staff made me feel very comfortable and if I needed anything it was right there.  Thanks for the help in assisting me with my recovery.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Came to the hotel to recovery from knee surgery and had my mom and aunt in from Michigan to help.  While I was in the hospital they were having a great time at the Social meeting the staff; they really enjoy Jerre Bolin's company and his pouring of the wine.  They also got to know the maintenance staff, Lou, who could not have been more accomadating, he went above and beyond.  When the left I still had 4 days here to stay, and the staff made me feel very comfortable and if I needed anything it was right there.  Thanks for the help in assisting me with my recovery.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r585351465-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>585351465</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t>I stay in this hotel often. The management and staff here always do their best to make my stay pleasant. When I have team meetings here they go above and beyond to make sure everything goes perfectly, we have everything we need, and that we have an enjoyable stay. People like Jerre Bolin, Brittany Green, are the reason I keep coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2018</t>
+  </si>
+  <si>
+    <t>I stay in this hotel often. The management and staff here always do their best to make my stay pleasant. When I have team meetings here they go above and beyond to make sure everything goes perfectly, we have everything we need, and that we have an enjoyable stay. People like Jerre Bolin, Brittany Green, are the reason I keep coming back.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r583987181-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
-    <t>30183</t>
-  </si>
-  <si>
-    <t>1176216</t>
-  </si>
-  <si>
     <t>583987181</t>
   </si>
   <si>
@@ -174,24 +333,15 @@
     <t>My family and I are truly enjoying our stay!  The staff is super friendly and helpful!   Benny and Jerre have gone above and beyond to make us feel welcome!   This unexpected stay has been a true getaway!!  Thank you so much!!!MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
   </si>
   <si>
     <t>My family and I are truly enjoying our stay!  The staff is super friendly and helpful!   Benny and Jerre have gone above and beyond to make us feel welcome!   This unexpected stay has been a true getaway!!  Thank you so much!!!More</t>
   </si>
   <si>
-    <t>Andrew M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r583899019-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -207,9 +357,6 @@
     <t>I love this Residence Inn so much!  We checked in early and had a wonderful stay.  We loved the RI Mix in the evening.  Jerre Bolin was a great host for this social culinary event (this guy deserves a raise!).  The rest of staff was also very accommodating providing extra pillows and towels when we needed them.Thanks Residence Inn for an amazing stay!More</t>
   </si>
   <si>
-    <t>perriconklin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r582513864-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -225,13 +372,58 @@
     <t>Jerre Bolin was a pleasure to work with and was very helpful with our meeting. We have a weekly meeting and he is always very good at welcoming our guests. We love having our meeting here and hope to continue for a long time.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Jerre Bolin was a pleasure to work with and was very helpful with our meeting. We have a weekly meeting and he is always very good at welcoming our guests. We love having our meeting here and hope to continue for a long time.More</t>
   </si>
   <si>
-    <t>lhorns06</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r578094982-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>578094982</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Best customer service thanks to Benny</t>
+  </si>
+  <si>
+    <t>My family and I stayed here last night and the manger Benny was so awesome. Benny really went above and beyond for us. His customer service was excellent. I have stayed at many hotels and this one was the best thanks to Benny. I hope the Marriott values his good work ethic and skills. He truly is really awesomeMoreShow less</t>
+  </si>
+  <si>
+    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>My family and I stayed here last night and the manger Benny was so awesome. Benny really went above and beyond for us. His customer service was excellent. I have stayed at many hotels and this one was the best thanks to Benny. I hope the Marriott values his good work ethic and skills. He truly is really awesomeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r577930656-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>577930656</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Great hotel, large rooms, friendly staff (Jerre Bolin!)</t>
+  </si>
+  <si>
+    <t>This hotel is great. Close by plenty of shopping and food. To my surprise the rooms/suites were huge. Plenty of space to stretch out, cook or relax. There is a nice little patio outside for grilling. Best of all the staff, Jerre Bolin, was such a pleasure. (oh and I never had any problems with the wifi even though I'm a pretty heavy user for work. a big plus!)MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is great. Close by plenty of shopping and food. To my surprise the rooms/suites were huge. Plenty of space to stretch out, cook or relax. There is a nice little patio outside for grilling. Best of all the staff, Jerre Bolin, was such a pleasure. (oh and I never had any problems with the wifi even though I'm a pretty heavy user for work. a big plus!)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r577928599-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -240,27 +432,15 @@
     <t>577928599</t>
   </si>
   <si>
-    <t>05/04/2018</t>
-  </si>
-  <si>
     <t>Kudos to Benny</t>
   </si>
   <si>
     <t>I'd like to recognize Benny at the front desk  for the excellent job he did for me. He made sure I had the accessible room I needed for my mother. He followed up to make sure everything was OK with the room. His professional and courteous work is appreciated.MoreShow less</t>
   </si>
   <si>
-    <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded May 5, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 5, 2018</t>
-  </si>
-  <si>
     <t>I'd like to recognize Benny at the front desk  for the excellent job he did for me. He made sure I had the accessible room I needed for my mother. He followed up to make sure everything was OK with the room. His professional and courteous work is appreciated.More</t>
   </si>
   <si>
-    <t>francisk911</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r567905765-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -276,9 +456,6 @@
     <t>I stayed at this hotel for 18 days while training for business.  This had to be one of the best experiences I've EVER had while traveling for work.  Breakfast was top notch, the facilities were always clean, the room was amazing and the staff made ALL the difference!  From the cleaning crew to the kitchen staff... They made all the difference! Emily is the Best, Lee is the Man, and God Bless Jerry, who made me laugh and think every time he drove us somewhere in the van.  Overall, this was a very pleasurable experience, hopefully I'll get to come back for additional training and stay here again.  Thank you so much for allowing me to feel like part of the family.  God Bless-MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>Bobbi B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded March 23, 2018</t>
   </si>
   <si>
@@ -288,9 +465,6 @@
     <t>I stayed at this hotel for 18 days while training for business.  This had to be one of the best experiences I've EVER had while traveling for work.  Breakfast was top notch, the facilities were always clean, the room was amazing and the staff made ALL the difference!  From the cleaning crew to the kitchen staff... They made all the difference! Emily is the Best, Lee is the Man, and God Bless Jerry, who made me laugh and think every time he drove us somewhere in the van.  Overall, this was a very pleasurable experience, hopefully I'll get to come back for additional training and stay here again.  Thank you so much for allowing me to feel like part of the family.  God Bless-More</t>
   </si>
   <si>
-    <t>NoName55857</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r557634687-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -318,7 +492,58 @@
     <t>Very convenient location near the Parks Mall and The Highlands.  The lobby is very nice, well decorated.  But, don’t plan on getting in there for free breakfast on the weekends.  There were several very large families with kids taking all of the tables.  Monday was completely different.  Food was good and the staff was pleasant and helpful.Room was not clean.  There were stains on the furniture and curtains.  The shampoo and conditioner bottles were used and nearly empty.  Whenever I see something that housekeeping has overlooked, I wonder what I’m not seeing.This property is a Marriott franchise and clearly the standards are different than a corporate property.Take your valuables and lock the car!  There was glass in the parking lot where a car had been broken in to.  I can’t blame the hotel for this...there are signs reminding you to lock your car.There are so many choices in Arlington, I will probably try something else next time.More</t>
   </si>
   <si>
-    <t>tylerlisal</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r546098513-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>546098513</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>hotel rooms are the best</t>
+  </si>
+  <si>
+    <t>I spent one whole moth in this hotel. Rooms are big, comfortable and clean. They have no restaurant but they serve breakfast and snacks sometimes in the "happy hour". need to pay more attention to the breakfast, many days were not fruit left or coffee and there was no one to ask. They have a nice BBQ area that you can use any time you want. The location is great, close to the mall, bars, restaurants. Conference room was so cold.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Mary E, HR Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>I spent one whole moth in this hotel. Rooms are big, comfortable and clean. They have no restaurant but they serve breakfast and snacks sometimes in the "happy hour". need to pay more attention to the breakfast, many days were not fruit left or coffee and there was no one to ask. They have a nice BBQ area that you can use any time you want. The location is great, close to the mall, bars, restaurants. Conference room was so cold.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r520625933-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>520625933</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Hotel rooms were great</t>
+  </si>
+  <si>
+    <t>The rooms were great, spacious and clean. The staff was really great. They need security cameras outside of the hotel. Someone tried to break into my pickup. According to the police it wasn't the first time but no cameras to see Who so maybe they could stop this from happening.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Bobbi G, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>The rooms were great, spacious and clean. The staff was really great. They need security cameras outside of the hotel. Someone tried to break into my pickup. According to the police it wasn't the first time but no cameras to see Who so maybe they could stop this from happening.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r511297675-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -348,9 +573,6 @@
     <t>We booked via a third party and pre-paid. At check-in, I gave my credit card for incidentals. When my bill arrived, I noticed I had been charged for the room. I called and was told it would be corrected in 3-5 business days. Two weeks later and the charge has not been removed, and I am still waiting for someone to call me. Avoid staying here, and if you do, make sure to check your credit card statement for fraudulent charges.More</t>
   </si>
   <si>
-    <t>Rick B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r505625118-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -369,9 +591,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>Mike C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r503689932-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -390,7 +609,61 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Damien R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r487854462-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>487854462</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>LOCATION AND STAFF</t>
+  </si>
+  <si>
+    <t>In the center of everything. Very conveniently located near alot of shopping and places to eat. I was very impressed with the manager on duty (Benny). He took great care of my family and I when dealing with a minor issue. The rooms were very clean and spacious. The housekeeping staff do a great job. The free breakfast in morning was delicious and my grandkids loved it. They also took advantaged of the indoor pool and it was also alot of fun. I highly recommend this hotel if your in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>In the center of everything. Very conveniently located near alot of shopping and places to eat. I was very impressed with the manager on duty (Benny). He took great care of my family and I when dealing with a minor issue. The rooms were very clean and spacious. The housekeeping staff do a great job. The free breakfast in morning was delicious and my grandkids loved it. They also took advantaged of the indoor pool and it was also alot of fun. I highly recommend this hotel if your in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r485639025-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>485639025</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Horrible Customer Service</t>
+  </si>
+  <si>
+    <t>I was so disappointed and upset with my experience with this hotel. 
+My husband calls the platinum  reservation line to set up a room using points yesterday. He then calls hotel to ask for Platinum Upgrade if possible to 2 bdr. suite. We were so happy when the clerk (Maddie) said ," No problem, Mr. Shield we have one available. " Then we get a call left on our voicemail 15 minutes later telling us sorry we cannot have upgrade because we were paying wirh points not Cash.
+I immediately call hotel to find out what the problem is. I have been upgraded to  2 bdr. in the past using points . I knew she  was lying when she said "this was a policy." I spoke to Asst. Manager "Bobbi" , she was as rude and condescending as she could be. I was shocked at the way she spoke to me. She kept trying to cut me off in mid sentence. Finally, begrudgingly,  she agreed to give me the Upgrade back. She said, " Go ahead and call Customer Service if you want, I don't care. I did call, but the great thing is if you Google it you can CEO  Sorenson email address. Sent him email as well. We have been Platinum , loyal, members for years, but I will not use Marriott if I have a choice from now on.
+ To take back an upgrade just because I...I was so disappointed and upset with my experience with this hotel. My husband calls the platinum  reservation line to set up a room using points yesterday. He then calls hotel to ask for Platinum Upgrade if possible to 2 bdr. suite. We were so happy when the clerk (Maddie) said ," No problem, Mr. Shield we have one available. " Then we get a call left on our voicemail 15 minutes later telling us sorry we cannot have upgrade because we were paying wirh points not Cash.I immediately call hotel to find out what the problem is. I have been upgraded to  2 bdr. in the past using points . I knew she  was lying when she said "this was a policy." I spoke to Asst. Manager "Bobbi" , she was as rude and condescending as she could be. I was shocked at the way she spoke to me. She kept trying to cut me off in mid sentence. Finally, begrudgingly,  she agreed to give me the Upgrade back. She said, " Go ahead and call Customer Service if you want, I don't care. I did call, but the great thing is if you Google it you can CEO  Sorenson email address. Sent him email as well. We have been Platinum , loyal, members for years, but I will not use Marriott if I have a choice from now on. To take back an upgrade just because I was using my hard earned points? Where is the Customer Service in that? The way Bobbi spoke to me was unacceptable. The only good part of this hotel would be " Lisa , in the kitchen, as well as, Maddie  front desk. To sum up, the worst customer service I have ever had in any of the Marriott  properties. Done with Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>I was so disappointed and upset with my experience with this hotel. 
+My husband calls the platinum  reservation line to set up a room using points yesterday. He then calls hotel to ask for Platinum Upgrade if possible to 2 bdr. suite. We were so happy when the clerk (Maddie) said ," No problem, Mr. Shield we have one available. " Then we get a call left on our voicemail 15 minutes later telling us sorry we cannot have upgrade because we were paying wirh points not Cash.
+I immediately call hotel to find out what the problem is. I have been upgraded to  2 bdr. in the past using points . I knew she  was lying when she said "this was a policy." I spoke to Asst. Manager "Bobbi" , she was as rude and condescending as she could be. I was shocked at the way she spoke to me. She kept trying to cut me off in mid sentence. Finally, begrudgingly,  she agreed to give me the Upgrade back. She said, " Go ahead and call Customer Service if you want, I don't care. I did call, but the great thing is if you Google it you can CEO  Sorenson email address. Sent him email as well. We have been Platinum , loyal, members for years, but I will not use Marriott if I have a choice from now on.
+ To take back an upgrade just because I...I was so disappointed and upset with my experience with this hotel. My husband calls the platinum  reservation line to set up a room using points yesterday. He then calls hotel to ask for Platinum Upgrade if possible to 2 bdr. suite. We were so happy when the clerk (Maddie) said ," No problem, Mr. Shield we have one available. " Then we get a call left on our voicemail 15 minutes later telling us sorry we cannot have upgrade because we were paying wirh points not Cash.I immediately call hotel to find out what the problem is. I have been upgraded to  2 bdr. in the past using points . I knew she  was lying when she said "this was a policy." I spoke to Asst. Manager "Bobbi" , she was as rude and condescending as she could be. I was shocked at the way she spoke to me. She kept trying to cut me off in mid sentence. Finally, begrudgingly,  she agreed to give me the Upgrade back. She said, " Go ahead and call Customer Service if you want, I don't care. I did call, but the great thing is if you Google it you can CEO  Sorenson email address. Sent him email as well. We have been Platinum , loyal, members for years, but I will not use Marriott if I have a choice from now on. To take back an upgrade just because I was using my hard earned points? Where is the Customer Service in that? The way Bobbi spoke to me was unacceptable. The only good part of this hotel would be " Lisa , in the kitchen, as well as, Maddie  front desk. To sum up, the worst customer service I have ever had in any of the Marriott  properties. Done with Marriott.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r475961172-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -411,9 +684,6 @@
 Overall, I would recommend this hotel to anyone who...I was in Dallas during Good Friday weekend and I got the Residence Inn for $64 off a Priceline Express Deal. The location is excellent, adjacent to I-20 and close to numerous restaurants and shops at the Arlington Highlands. The front desk receptionist, Leslie, was very friendly and helpful. The lobby area was very large which was nice.The room was very clean and spacious. The kitchenette was fairly small but it was adequate and complete with granite countertops. The fridge and microwave were both larger than in most hotels. There were also a number of kitchen utensils offered along with rags and dishwasher soap. The living area was more than sufficient with a nice sofa and a bar table with a jar of sweets and mints. The bed and pillows were more than comfortable and the bathroom was had plenty of towels and offered all essential toiletries. The room did need some work however. There were some pink stains on the walls and the drawers in the bathroom were chipped in places. The Internet was fairly fast and I did have some problems connecting, but the front desk fixed the problem quickly.The breakfast was great with a number of hot and cold options. The hot options included pork and chicken sausages, oatmeal, scrambled eggs, and biscuits and gravy. The cold options included fruit, yogurt, boiled eggs, breads, and juices.Overall, I would recommend this hotel to anyone who is traveling to Arlington and the surrounding area. The location and quality are almost unmatched.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>Aaron B, Front Office Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded April 29, 2017</t>
   </si>
   <si>
@@ -426,9 +696,6 @@
 Overall, I would recommend this hotel to anyone who...I was in Dallas during Good Friday weekend and I got the Residence Inn for $64 off a Priceline Express Deal. The location is excellent, adjacent to I-20 and close to numerous restaurants and shops at the Arlington Highlands. The front desk receptionist, Leslie, was very friendly and helpful. The lobby area was very large which was nice.The room was very clean and spacious. The kitchenette was fairly small but it was adequate and complete with granite countertops. The fridge and microwave were both larger than in most hotels. There were also a number of kitchen utensils offered along with rags and dishwasher soap. The living area was more than sufficient with a nice sofa and a bar table with a jar of sweets and mints. The bed and pillows were more than comfortable and the bathroom was had plenty of towels and offered all essential toiletries. The room did need some work however. There were some pink stains on the walls and the drawers in the bathroom were chipped in places. The Internet was fairly fast and I did have some problems connecting, but the front desk fixed the problem quickly.The breakfast was great with a number of hot and cold options. The hot options included pork and chicken sausages, oatmeal, scrambled eggs, and biscuits and gravy. The cold options included fruit, yogurt, boiled eggs, breads, and juices.Overall, I would recommend this hotel to anyone who is traveling to Arlington and the surrounding area. The location and quality are almost unmatched.More</t>
   </si>
   <si>
-    <t>Brett G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r473023808-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -453,9 +720,6 @@
     <t>The Arlington Residence Inn is spotlessly clean and comfortable and the complementary breakfast is outstanding.. The location is fantastic and convenient to countless restaurants, shops, and local attractions. In addition, the superlative staff members are friendly, attentive and highly skilled. Gracie, at the front desk, is a superstar. She solved a major reservation problem for me in less time than it took me to describe it. If you are visiting Arlington, for work or for play, this is where you want to rest your head.More</t>
   </si>
   <si>
-    <t>G S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r469030039-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -477,7 +741,58 @@
     <t>The Location is perfect as it is right across the street from the Highlands which is a shopping and hang out area.  Almost everything within minutes of you.  Some of the hotel staff was very friendly, but others acted like you were bothering them if you asked simple questions or for toiletry.  The breakfast was okay, I still cannot believe in this day and age they serve Pork Only?More</t>
   </si>
   <si>
-    <t>Nathan L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r455492218-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>455492218</t>
+  </si>
+  <si>
+    <t>01/28/2017</t>
+  </si>
+  <si>
+    <t>Great Marriott Property</t>
+  </si>
+  <si>
+    <t>I got this property on a Priceline Express.  Can not stay anything bad about the room  or property.  There was a high school football team staying across the hall from me and they had a 10 pm bed check and never heard a peep.  Great wifi and hot water.  Slept like a baby.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>I got this property on a Priceline Express.  Can not stay anything bad about the room  or property.  There was a high school football team staying across the hall from me and they had a 10 pm bed check and never heard a peep.  Great wifi and hot water.  Slept like a baby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r453320297-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>453320297</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Clean &amp; Friendly</t>
+  </si>
+  <si>
+    <t>I stay here every week and my room is always spotless and the staff are friendly, kind and responsive. The nearby shopping and restaurants are convenient. The blackout curtains are effective if you're careful to close them all the way and you get very little outside noise; better than some apartments I've lived in. This week I didn't have a backup role of toilet paper or they would have gotten five stars. MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded January 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2017</t>
+  </si>
+  <si>
+    <t>I stay here every week and my room is always spotless and the staff are friendly, kind and responsive. The nearby shopping and restaurants are convenient. The blackout curtains are effective if you're careful to close them all the way and you get very little outside noise; better than some apartments I've lived in. This week I didn't have a backup role of toilet paper or they would have gotten five stars. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r446431763-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -505,9 +820,6 @@
   </si>
   <si>
     <t>This is the second time I've stayed here for family around Christmas. There are some nice places to eat nearby, the accommodations are very clean and nice. The free breakfast is one of the best hotel breakfasts I've ever had. They actually put sausage in their gravy so it's not some milky white "country" gravy and has some flavor.More</t>
-  </si>
-  <si>
-    <t>Rob S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r442607206-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -531,9 +843,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded December 10, 2016</t>
   </si>
   <si>
@@ -546,9 +855,6 @@
 I had several issues with housekeeping during my stay, from small annoyances like not giving me a new bag of popcorn (I know im being petty on that one), to pretty big issues like putting dirty dishes with food stuck to them back in the drawer, and leaving cleaning products in my room. On one occasion they left a cup they used for whatever cleaning chemicals on the toilet, and on another they left a pair of used blue plastic gloves on the sink about an inch from my toothbrush. I went to the front desk about this, and they were very accommodating, making sure that some one different cleaned my room from that point forward. Another...I stayed here for 3 weeks on business and there were a few great things, and a few things that could use some improvement.Laundry facilities are actually really good for a hotel. There is nothing worse than an extended stay hotel with a single working washer and dryer. This place had 5, and they actually got my clothes dry which is pretty impressive.The location of the hotel is great, and pretty easy to get into/out of. Its right off I-20, and there are a lock of restaurants nearby within walking distance. The Parks mall is also less than a 5 minute drive away. Around rush hour though the traffic at 20/Matlock (the nearest large intersection) can be brutal, so plan accordingly.I had several issues with housekeeping during my stay, from small annoyances like not giving me a new bag of popcorn (I know im being petty on that one), to pretty big issues like putting dirty dishes with food stuck to them back in the drawer, and leaving cleaning products in my room. On one occasion they left a cup they used for whatever cleaning chemicals on the toilet, and on another they left a pair of used blue plastic gloves on the sink about an inch from my toothbrush. I went to the front desk about this, and they were very accommodating, making sure that some one different cleaned my room from that point forward. Another nitpicky thing that was pretty annoying was the coffee and the fact that they dont have it out all day (First Marriott I've seen outside of a Courtyard or a high end one that doesn't). The front desk girl said it was because of the kitchen being closed and suggested I use the coffee pot in my room (Lets be real, those things aren't cleaned at ANY hotel). I guess their coffee requires a chef or something to brew, so go figure. Breakfast was also frustrating at times. During the weak, breakfast was really good in that there was a variety of items that would rotate so I didn't have to eat the same thing every day. Weekends or any time the hotel was booked up was a complete mess though, and it was really easy to see that the hotel did not have proper staffing to keep up. On the same day, i saw them out of coffee, coffee cups, silverware, plates, eggs, and bacon all at the same time. I was scratching my head, because you have to know this is going to happen when you have a huge party of cheerleaders staying in a quarter of your hotel from a competition in town. Dinner on Mon-Wed was actually a step above most Residence Inns, so they do get credit for that.Overall it depends on your needs on whether or not I would recommend this hotel. if you are traveling for fun, its probably perfect for you. There were multiple meetings and lots of groups staying here, so they can probably coordinate stuff for you very easily. As far as for my needs though, I'm not sure i could stay here for another 3 weeks on business.More</t>
   </si>
   <si>
-    <t>wdaniel06</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r439322932-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -573,7 +879,55 @@
     <t>Because of a plumbing leak in our home, we were displaced and needed a place for our family of 5 during the restoration process.  I'm a faithful Marriott fan, but had never stayed in Marriott for 2.5 weeks, and certainly not with my entire family of 5 + golden retrieve.Kitchen had a full stovetop and over, plus a full-size fridge.Housekeeping was good, but had to be prompted to replace a few items.Food service manager and crew were really on top of it.Entire hotel staff made our stay very enjoyable, in spite of us being a bit cramped in a 2 bedroom/2 bath suite.More</t>
   </si>
   <si>
-    <t>JG_EDH</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r431670736-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>431670736</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Awesome Arlington Stay</t>
+  </si>
+  <si>
+    <t>Arrived at the hotel around 4:30pm and checked in using the Marriott hotels app which was very convenient. The front desk staff quickly attended me and gave me my room keys. We arrived in our room which was on the 4th floor highest floor as I wished and was very spacious and clean. Overall the staff was pretty friendly, comfy beds, pillows your head can sink in and clean bathroom made for excellent night stay, highly recommend staying at this Residence Inn in South Arlington. I couldn't speak for their breakfast buffet since we didn't make it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Arrived at the hotel around 4:30pm and checked in using the Marriott hotels app which was very convenient. The front desk staff quickly attended me and gave me my room keys. We arrived in our room which was on the 4th floor highest floor as I wished and was very spacious and clean. Overall the staff was pretty friendly, comfy beds, pillows your head can sink in and clean bathroom made for excellent night stay, highly recommend staying at this Residence Inn in South Arlington. I couldn't speak for their breakfast buffet since we didn't make it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r427976032-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>427976032</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Top class !!!</t>
+  </si>
+  <si>
+    <t>Great hotel. Nice clean rooms and good facilities. Very friendly staff. In particular girl at the front desk named Becca. Very friendly and helpful girl. Works tirelessly. When not helping residents at the front she always seems to be helping other staff in their duties. Located 10 min walk from a huge shopping mall and 5 min walk from some lovely restaurants MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel. Nice clean rooms and good facilities. Very friendly staff. In particular girl at the front desk named Becca. Very friendly and helpful girl. Works tirelessly. When not helping residents at the front she always seems to be helping other staff in their duties. Located 10 min walk from a huge shopping mall and 5 min walk from some lovely restaurants More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r425865195-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -603,9 +957,6 @@
     <t>Stayed here for a week while attending work training. Knew there was issues when I walked into the lobby to check in at 3pm. The manager was already there speaking to another customer and explaining how their room wasn't ready. I stepped up and was immediately assigned a room. Got my key walked into the room and it had a partially eaten pizza on the table and the room was NOT cleaned with the TV blaring. I walked back to the front desk and shared the condition of the room. They immediately gave me room 219 ( If you ever get assigned this room RUN ;~) just take a look at the picture. Could have been a WORSE stay, but definitely could have been BETTER! With the many hotels options in the areas I'd be hard pressed to chose this hotel again.More</t>
   </si>
   <si>
-    <t>kevslonebop</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r418898235-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -633,9 +984,6 @@
     <t>I stayed here for 2 weeks for work. The room and accommodation's were great to arrive to after having to be at work for the day. Your room was always clean and comfortable when you arrived. If you wanted to workout or whatever it may be, you can do it here. If you wanted to grab something good to eat, Leslie at the front desk was a great help for giving suggestions and taking care of anything you needed while there for your stay. I will definitely be back to stay here again.More</t>
   </si>
   <si>
-    <t>The_Bagwells</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r418833459-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -651,7 +999,43 @@
     <t>Stayed at the Courtyard next door to the Residence Inn over the weekend for business.  Jerry - Mr. Attitude was an awesome shuttle driver.  Didn't hesitate to take our part to a local restaurant for dinner and pick us back up.   Just a very nice guy to talk to.More</t>
   </si>
   <si>
-    <t>Stephen D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r417731802-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>417731802</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Heavenly Stay</t>
+  </si>
+  <si>
+    <t>This hotel is great.  The rooms were spotless. The beds were comfortable and the a/c worked great.  The receptionist Leslie was very helpful.  She suggested places to eat and things to do.  Her smile and laugh made the stay that much more enjoyable.  She went out of her way to make sure the stay was pleasant. She deserves a raise. I enjoyed the social hour during the evening with refreshments and snacks.  Jerre did a great job driving us around.  Even though he was born before cars were invented, he sure knows how to drive a shuttle bus.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>This hotel is great.  The rooms were spotless. The beds were comfortable and the a/c worked great.  The receptionist Leslie was very helpful.  She suggested places to eat and things to do.  Her smile and laugh made the stay that much more enjoyable.  She went out of her way to make sure the stay was pleasant. She deserves a raise. I enjoyed the social hour during the evening with refreshments and snacks.  Jerre did a great job driving us around.  Even though he was born before cars were invented, he sure knows how to drive a shuttle bus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r412505789-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>412505789</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracheo's family </t>
+  </si>
+  <si>
+    <t>I have stayed at Residence Inn couple times, between Arlington and Abilene Tx. The rooms are clean and comfortable. The accommodations in the rooms are awesome for extended stay visits with a full size frig and a stove. During the week, the hotel provides great snacks with wine and beer to wash it down. The front desk personnel are very nice and accommodating. My favorite girl at the front desk is Becca, at Arlington location after returning from work during the day, it is nice to walk into the lobby greeted by Becca's smile and asking how my day was. The little things this hotel provided made for a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at Residence Inn couple times, between Arlington and Abilene Tx. The rooms are clean and comfortable. The accommodations in the rooms are awesome for extended stay visits with a full size frig and a stove. During the week, the hotel provides great snacks with wine and beer to wash it down. The front desk personnel are very nice and accommodating. My favorite girl at the front desk is Becca, at Arlington location after returning from work during the day, it is nice to walk into the lobby greeted by Becca's smile and asking how my day was. The little things this hotel provided made for a great stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r398908695-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -672,9 +1056,6 @@
     <t>I have stayed at this Residence Inn twice, both times more than two weeks at a time. The rooms are clean and comfortable. The accommodations in the rooms are awesome for extended stay visits with a full size frig and a stove. During the week, the hotel provides great snacks with wine and beer to wash it down. The front desk personnel are very nice and accommodating. My favorite at the front desk was Lesley, after returning from work during the day, it was nice to walk into the lobby greeted by Lesley's smile and asking how my day was. The little things this hotel provided made for a great trip. More</t>
   </si>
   <si>
-    <t>Karen D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r396940388-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -693,9 +1074,6 @@
     <t>The room was very clean and spacious.  Stayed in a Studio King.  Had a fridge, stovetop (didn't cook), dishwasher, King Bed, nice-sized tv ideally located on swivel to accommodate you seeing it from any place except bathroom, table for 2, desk, and L-shaped sofa.  The AC worked well and kept us cool and comfortable.  I asked for a 4th floor room so no one was above me.  Did not hear others at night.  I use the microwave fan though to mimic the bathroom fan I use at home.  Used the pool and courtyard area to host a family get together.  Brought Rudy's BBQ to the outside patio and felt like I was at home hosting the family!  The fridge in the room is a good size so leftovers fit in there with room to spare.  Friendly staff, especially Greg at the front desk.  Will definitely stay again next time I'm in the area.More</t>
   </si>
   <si>
-    <t>Tee1000</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r389172796-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -723,7 +1101,58 @@
     <t>I am an elite platinum Marriott member and was very disappointed with the the service I received at this property.  My issue is lack of follow through by management.  I stayed here on points and decided to cut my stay short by one day.  I called the front desk 24hours before my last day to cancel.  I was assured that it was fine and I would be credited my points for the night I wasn't using.  When we checked out the next morning no one was at the desk but a housekeeping staff member said just leave your key and I will inform the staff.  I was never credited the night.  I called the platinum line and the manager of the property called and left a message on my phone.  I in turn lest several messages and spoke to someone once.  I was told that "it was being looked into".  I was never credited the points and gave up trying. I would not recommend this property.  More</t>
   </si>
   <si>
-    <t>Paul M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r384648389-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>384648389</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Relocation</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay. I am in a studio suite and I have enjoyed my 2 week long stay. The General manager Aaron B. has been absolutely wonderful and professional.  Suite is really nice and housekeeping staff is exceptional with the most sweet personalities. The have made this relocation stay as pleasureable as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay. I am in a studio suite and I have enjoyed my 2 week long stay. The General manager Aaron B. has been absolutely wonderful and professional.  Suite is really nice and housekeeping staff is exceptional with the most sweet personalities. The have made this relocation stay as pleasureable as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r376916786-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>376916786</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Awesome!!</t>
+  </si>
+  <si>
+    <t>Great accommodation. Came over from Ireland and stayed here for 6 weeks. The place was excellent. Facilities were more than adequate and the staff were very friendly and accommodating. Front desk staff particularly good. Female receptionist called Melinda was very helpful and courteous with any issues I had or help I needed. Would definitely recommend this place to others as a place to stay if spending an extended time in texasMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Aaron B, General Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded June 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2016</t>
+  </si>
+  <si>
+    <t>Great accommodation. Came over from Ireland and stayed here for 6 weeks. The place was excellent. Facilities were more than adequate and the staff were very friendly and accommodating. Front desk staff particularly good. Female receptionist called Melinda was very helpful and courteous with any issues I had or help I needed. Would definitely recommend this place to others as a place to stay if spending an extended time in texasMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r375627612-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
@@ -741,9 +1170,6 @@
     <t>This was definitely an above average stay at the Residence Inn - exceptionally good staff.  I'd probably give this a 5 star were it not for the power and parking problems.  We arrived at a last minute reservation as my wife was ill and arrived to find the power had failed on the floor we were assigned in the hall (the room had power).  I have to give the front desk person credit - she was handling the situation with great calm given the calls she was getting.  She even opened the kitchen for me so I could get my wife some crackers to calm her stomach.  The room was nice, clean, and well appointed.  No issues with it at all.Breakfast was quite a good spread with attentive staff.  The only persistent issue was parking.  There were a number of crates blocking parts of the lot.  This became a real problem in the morning when they hosted a local church service.  The lot was borderline impossible. The crowd passed but they really should have thought out some contingencies with the lot in the shape that it was in.Still this is a great hotel and once the crates are gone (I think they just did some refurbishing) I think it will be a top notch asset to the chain.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>Aaron B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded May 25, 2016</t>
   </si>
   <si>
@@ -753,9 +1179,6 @@
     <t>This was definitely an above average stay at the Residence Inn - exceptionally good staff.  I'd probably give this a 5 star were it not for the power and parking problems.  We arrived at a last minute reservation as my wife was ill and arrived to find the power had failed on the floor we were assigned in the hall (the room had power).  I have to give the front desk person credit - she was handling the situation with great calm given the calls she was getting.  She even opened the kitchen for me so I could get my wife some crackers to calm her stomach.  The room was nice, clean, and well appointed.  No issues with it at all.Breakfast was quite a good spread with attentive staff.  The only persistent issue was parking.  There were a number of crates blocking parts of the lot.  This became a real problem in the morning when they hosted a local church service.  The lot was borderline impossible. The crowd passed but they really should have thought out some contingencies with the lot in the shape that it was in.Still this is a great hotel and once the crates are gone (I think they just did some refurbishing) I think it will be a top notch asset to the chain.More</t>
   </si>
   <si>
-    <t>TomHAntioch_CA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r371642574-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -780,9 +1203,6 @@
     <t>Wow!  This place was much neater, cleaner and well put together than we imagined it would be.  Our kids picked this place because our granddaughter was in a competition nearby and they wanted a suite set up for family convenience.  We flew in for a few days and got the suite next door so we could visit on family terms.  We weren't expecting much but received so much more.The room was clean, updated and comfortable.  The entire hotel is in very nice condition. Even the courtesy breakfast bar was not bad.There is great shopping and restaurants nearby.  And maybe even a few bars worth hitting (sorry kids, it helps grandma and grandpa cope with small children in our advanced age).If you're in the area and are traveling with family, this inn is a great place to base yourself from.  You can save money by having at least some meals in.  The rooms even have dishwashers!More</t>
   </si>
   <si>
-    <t>mckaw7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r371159303-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
   </si>
   <si>
@@ -805,6 +1225,30 @@
   </si>
   <si>
     <t>Stayed here for wrestle mania hotel reception on arrival was fantastic travelled world and never had a welcome like it. Staff very helpful and go the extra mile. Room was great and so was breakfast. Hotel located half hour walk to at &amp; t stadium also water park nearby. Taxi cheap into centre Dallas. Nice restaurants located opposite hotel highly recommend salt house. Would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d1176216-r369120903-Residence_Inn_Dallas_Arlington_South-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>369120903</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice location, shopping and restaurants everywhere </t>
+  </si>
+  <si>
+    <t>Stayed here after going to another Residence Inn who stated they didn't have my reservation and also didn't have any more rooms available.    Used my Marriott app to find another hotel close by and quick.  Booked the room, showed up in 15 minutes and reservation was set, room was ready, and front desk personnel was very pleasant.    Nice studio king bed with kitchen and sitting area.   Rooms looked newly remodeled or just well kept.    Didn't have any issues with parking during my entire stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Aaron B, Manager at Residence Inn Dallas Arlington South, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here after going to another Residence Inn who stated they didn't have my reservation and also didn't have any more rooms available.    Used my Marriott app to find another hotel close by and quick.  Booked the room, showed up in 15 minutes and reservation was set, room was ready, and front desk personnel was very pleasant.    Nice studio king bed with kitchen and sitting area.   Rooms looked newly remodeled or just well kept.    Didn't have any issues with parking during my entire stay.  More</t>
   </si>
 </sst>
 </file>
@@ -1309,183 +1753,169 @@
       <c r="A2" t="n">
         <v>57307</v>
       </c>
-      <c r="B2" t="n">
-        <v>1137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57307</v>
       </c>
-      <c r="B3" t="n">
-        <v>20173</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
       <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57307</v>
       </c>
-      <c r="B4" t="n">
-        <v>175615</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1497,136 +1927,126 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57307</v>
       </c>
-      <c r="B5" t="n">
-        <v>175616</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57307</v>
       </c>
-      <c r="B6" t="n">
-        <v>175617</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -1635,67 +2055,69 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57307</v>
       </c>
-      <c r="B7" t="n">
-        <v>175618</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1713,806 +2135,752 @@
       <c r="A8" t="n">
         <v>57307</v>
       </c>
-      <c r="B8" t="n">
-        <v>175619</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>103</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>104</v>
       </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
         <v>107</v>
-      </c>
-      <c r="X8" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57307</v>
       </c>
-      <c r="B9" t="n">
-        <v>5003</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" t="s">
-        <v>115</v>
-      </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57307</v>
       </c>
-      <c r="B10" t="n">
-        <v>3891</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57307</v>
       </c>
-      <c r="B11" t="n">
-        <v>175620</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57307</v>
       </c>
-      <c r="B12" t="n">
-        <v>56494</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57307</v>
       </c>
-      <c r="B13" t="n">
-        <v>17864</v>
-      </c>
-      <c r="C13" t="s">
-        <v>143</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
         <v>140</v>
-      </c>
-      <c r="X13" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57307</v>
       </c>
-      <c r="B14" t="n">
-        <v>49737</v>
-      </c>
-      <c r="C14" t="s">
-        <v>151</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57307</v>
       </c>
-      <c r="B15" t="n">
-        <v>18696</v>
-      </c>
-      <c r="C15" t="s">
-        <v>161</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>168</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="X15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57307</v>
       </c>
-      <c r="B16" t="n">
-        <v>175621</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57307</v>
       </c>
-      <c r="B17" t="n">
-        <v>175622</v>
-      </c>
-      <c r="C17" t="s">
-        <v>181</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="X17" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="Y17" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57307</v>
       </c>
-      <c r="B18" t="n">
-        <v>175623</v>
-      </c>
-      <c r="C18" t="s">
-        <v>191</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="n">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
         <v>4</v>
       </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="X18" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="Y18" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57307</v>
       </c>
-      <c r="B19" t="n">
-        <v>175624</v>
-      </c>
-      <c r="C19" t="s">
-        <v>201</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="n">
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
         <v>4</v>
       </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -2521,195 +2889,175 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>198</v>
-      </c>
-      <c r="X19" t="s">
-        <v>199</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57307</v>
       </c>
-      <c r="B20" t="n">
-        <v>42105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>207</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>196</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>198</v>
-      </c>
-      <c r="X20" t="s">
-        <v>199</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57307</v>
       </c>
-      <c r="B21" t="n">
-        <v>4468</v>
-      </c>
-      <c r="C21" t="s">
-        <v>214</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="X21" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57307</v>
       </c>
-      <c r="B22" t="n">
-        <v>175625</v>
-      </c>
-      <c r="C22" t="s">
-        <v>221</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2721,67 +3069,65 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="X22" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57307</v>
       </c>
-      <c r="B23" t="n">
-        <v>7271</v>
-      </c>
-      <c r="C23" t="s">
-        <v>231</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="K23" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -2790,145 +3136,1474 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57307</v>
       </c>
-      <c r="B24" t="n">
-        <v>175626</v>
-      </c>
-      <c r="C24" t="s">
-        <v>241</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="X24" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="Y24" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57307</v>
       </c>
-      <c r="B25" t="n">
-        <v>175627</v>
-      </c>
-      <c r="C25" t="s">
-        <v>250</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
+        <v>227</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>242</v>
+      </c>
+      <c r="O26" t="s">
+        <v>243</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>244</v>
+      </c>
+      <c r="X26" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>252</v>
+      </c>
+      <c r="X27" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
         <v>256</v>
       </c>
-      <c r="X25" t="s">
+      <c r="J28" t="s">
         <v>257</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="K28" t="s">
         <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>261</v>
+      </c>
+      <c r="X28" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>269</v>
+      </c>
+      <c r="O29" t="s">
+        <v>243</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>270</v>
+      </c>
+      <c r="X29" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>269</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>278</v>
+      </c>
+      <c r="X30" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>286</v>
+      </c>
+      <c r="O31" t="s">
+        <v>196</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>287</v>
+      </c>
+      <c r="X31" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" t="s">
+        <v>293</v>
+      </c>
+      <c r="L32" t="s">
+        <v>294</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>286</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>295</v>
+      </c>
+      <c r="X32" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K33" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" t="s">
+        <v>302</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>303</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>304</v>
+      </c>
+      <c r="X33" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>312</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>313</v>
+      </c>
+      <c r="X34" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s">
+        <v>318</v>
+      </c>
+      <c r="L35" t="s">
+        <v>319</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>303</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>313</v>
+      </c>
+      <c r="X35" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" t="s">
+        <v>324</v>
+      </c>
+      <c r="L36" t="s">
+        <v>325</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>326</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>313</v>
+      </c>
+      <c r="X36" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>329</v>
+      </c>
+      <c r="J37" t="s">
+        <v>330</v>
+      </c>
+      <c r="K37" t="s">
+        <v>331</v>
+      </c>
+      <c r="L37" t="s">
+        <v>332</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>326</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>313</v>
+      </c>
+      <c r="X37" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>312</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>313</v>
+      </c>
+      <c r="X38" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>341</v>
+      </c>
+      <c r="J39" t="s">
+        <v>342</v>
+      </c>
+      <c r="K39" t="s">
+        <v>343</v>
+      </c>
+      <c r="L39" t="s">
+        <v>344</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>312</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>313</v>
+      </c>
+      <c r="X39" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>347</v>
+      </c>
+      <c r="J40" t="s">
+        <v>348</v>
+      </c>
+      <c r="K40" t="s">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s">
+        <v>350</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>351</v>
+      </c>
+      <c r="O40" t="s">
+        <v>196</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>352</v>
+      </c>
+      <c r="X40" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" t="s">
+        <v>357</v>
+      </c>
+      <c r="K41" t="s">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s">
+        <v>359</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>360</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>361</v>
+      </c>
+      <c r="X41" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>364</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>365</v>
+      </c>
+      <c r="J42" t="s">
+        <v>366</v>
+      </c>
+      <c r="K42" t="s">
+        <v>367</v>
+      </c>
+      <c r="L42" t="s">
+        <v>368</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>369</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>370</v>
+      </c>
+      <c r="X42" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>373</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>374</v>
+      </c>
+      <c r="J43" t="s">
+        <v>375</v>
+      </c>
+      <c r="K43" t="s">
+        <v>376</v>
+      </c>
+      <c r="L43" t="s">
+        <v>377</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>369</v>
+      </c>
+      <c r="O43" t="s">
+        <v>196</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>378</v>
+      </c>
+      <c r="X43" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>381</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>382</v>
+      </c>
+      <c r="J44" t="s">
+        <v>383</v>
+      </c>
+      <c r="K44" t="s">
+        <v>384</v>
+      </c>
+      <c r="L44" t="s">
+        <v>385</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>369</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>386</v>
+      </c>
+      <c r="X44" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>390</v>
+      </c>
+      <c r="J45" t="s">
+        <v>391</v>
+      </c>
+      <c r="K45" t="s">
+        <v>392</v>
+      </c>
+      <c r="L45" t="s">
+        <v>393</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>394</v>
+      </c>
+      <c r="X45" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57307</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>397</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>398</v>
+      </c>
+      <c r="J46" t="s">
+        <v>399</v>
+      </c>
+      <c r="K46" t="s">
+        <v>400</v>
+      </c>
+      <c r="L46" t="s">
+        <v>401</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>369</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>402</v>
+      </c>
+      <c r="X46" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
